--- a/exchange-tcq3.xlsx
+++ b/exchange-tcq3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudee\source\tcq3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudee\source\tcq3\assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32150BB-569A-4A29-B4ED-594E317C6B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63599577-572C-4108-89A6-D6449805745B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{2511F080-30B5-4025-A5A4-2A086FA5E27F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>repo url</t>
   </si>
@@ -108,6 +108,36 @@
   </si>
   <si>
     <t xml:space="preserve">sender developer      </t>
+  </si>
+  <si>
+    <t>https://github.com/clean-code-craft-tcq-3/stream-line-ArchanaDeviSelvaraj/pull/1/files</t>
+  </si>
+  <si>
+    <t>https://github.com/clean-code-craft-tcq-3/stream-line-imsrkulkarni/pull/1/files</t>
+  </si>
+  <si>
+    <t>https://github.com/clean-code-craft-tcq-3/stream-line-tejeshsai/pull/1/files</t>
+  </si>
+  <si>
+    <t>https://github.com/clean-code-craft-tcq-3/stream-line-vivekvishwakarma31/pull/1/files</t>
+  </si>
+  <si>
+    <t>https://github.com/clean-code-craft-tcq-3/stream-line-Pooja-Desh/pull/1/files</t>
+  </si>
+  <si>
+    <t>ArchanaDeviSelvaraj</t>
+  </si>
+  <si>
+    <t>imsrkulkarni</t>
+  </si>
+  <si>
+    <t>tejeshsai</t>
+  </si>
+  <si>
+    <t>vivekvishwakarma31</t>
+  </si>
+  <si>
+    <t>Pooja-Desh</t>
   </si>
 </sst>
 </file>
@@ -321,8 +351,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{383BAEAF-755D-494D-8F36-73A7DF41C589}" name="Table1" displayName="Table1" ref="A1:C12" totalsRowShown="0" tableBorderDxfId="3">
-  <autoFilter ref="A1:C12" xr:uid="{383BAEAF-755D-494D-8F36-73A7DF41C589}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{383BAEAF-755D-494D-8F36-73A7DF41C589}" name="Table1" displayName="Table1" ref="A1:C18" totalsRowShown="0" tableBorderDxfId="3">
+  <autoFilter ref="A1:C18" xr:uid="{383BAEAF-755D-494D-8F36-73A7DF41C589}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{02E4D4EE-373B-4CD8-9966-0E613AD4A748}" name="sender developer      " dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{969DA56E-9DAE-4B76-97C6-D42AA1B043BD}" name="repo url" dataDxfId="1" dataCellStyle="Hyperlink"/>
@@ -632,10 +662,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,7 +796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -776,6 +806,66 @@
       <c r="C12" s="7" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="13" spans="1:3" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -790,11 +880,16 @@
     <hyperlink ref="B10" r:id="rId9" xr:uid="{90DC4139-33F9-4FFA-A27D-D8BD711DBE42}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{26DD427D-2D72-4E7A-97B6-50A553B743E7}"/>
     <hyperlink ref="B12" r:id="rId11" xr:uid="{F7BD9A91-5559-4373-8D01-C76DF4A3F24A}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{5EACDC07-973F-4071-9807-5BE07B295182}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{B863EB64-4FD7-4426-A594-BD04D985B0D6}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{795129EA-E5A7-47D4-AFE3-1793E20845B9}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{B6E7D43F-3BB8-4447-879B-FFB17FADF752}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{87CD7545-2BE6-4734-A91D-61F837C4A7FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId12"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId17"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>